--- a/config_4.6/act_ty_gifts_config.xlsx
+++ b/config_4.6/act_ty_gifts_config.xlsx
@@ -161,18 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>actp_buy_gift_bag_class_integral_gift_buy_nor</t>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_integral_gift_buy_v1</t>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_integral_gift_buy_v4</t>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_integral_gift_buy_v8</t>
-  </si>
-  <si>
     <t>style_key|皮肤的key值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,6 +277,22 @@
   </si>
   <si>
     <t>10512,10513,10514</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_buy_gift_shop_nor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_buy_gift_shop_v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_buy_gift_shop_v4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_buy_gift_shop_v8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,7 +706,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
@@ -728,13 +732,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E2" s="8">
         <v>1617667200</v>
@@ -743,10 +747,10 @@
         <v>1618243199</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I2" s="8">
         <v>1</v>
@@ -855,7 +859,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -934,40 +938,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="J2" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>22</v>
@@ -978,40 +982,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="E3" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="J3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="P3" s="8" t="s">
         <v>22</v>
@@ -1022,40 +1026,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="E4" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="P4" s="8" t="s">
         <v>22</v>
@@ -1066,40 +1070,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="E5" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="P5" s="8" t="s">
         <v>22</v>

--- a/config_4.6/act_ty_gifts_config.xlsx
+++ b/config_4.6/act_ty_gifts_config.xlsx
@@ -230,12 +230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"10万金币","20万","福气加成"</t>
-  </si>
-  <si>
-    <t>"18万金币","30万","福气加成"</t>
-  </si>
-  <si>
     <t>"480万金币","18万","福气加成"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,6 +287,14 @@
   </si>
   <si>
     <t>actp_buy_gift_bag_class_buy_gift_shop_v8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","30万","福气加成"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","20万","福气加成"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -858,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -941,10 +943,10 @@
         <v>29</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>30</v>
@@ -956,10 +958,10 @@
         <v>41</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>34</v>
@@ -985,10 +987,10 @@
         <v>29</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>30</v>
@@ -1003,7 +1005,7 @@
         <v>43</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>34</v>
@@ -1029,10 +1031,10 @@
         <v>29</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>30</v>
@@ -1041,13 +1043,13 @@
         <v>15</v>
       </c>
       <c r="G4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>34</v>
@@ -1073,10 +1075,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>30</v>
@@ -1085,13 +1087,13 @@
         <v>15</v>
       </c>
       <c r="G5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>34</v>

--- a/config_4.6/act_ty_gifts_config.xlsx
+++ b/config_4.6/act_ty_gifts_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -189,22 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10661,10662,10663</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10664,10665,10666</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10667,10668,10669</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10670,10671,10672</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"fffae1","af2a22"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,6 +273,22 @@
   </si>
   <si>
     <t>"4980万金币","180万","福气加成"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10503,10504,10505</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10506,10507,10508</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10509,10510,10511</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10512,10513,10514</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -676,7 +676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -731,7 +731,7 @@
         <v>32</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>31</v>
@@ -743,10 +743,10 @@
         <v>1618243199</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I2" s="8">
         <v>1</v>
@@ -854,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -937,37 +937,37 @@
         <v>33</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="J2" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>22</v>
@@ -981,37 +981,37 @@
         <v>33</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="J3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="P3" s="8" t="s">
         <v>22</v>
@@ -1025,37 +1025,37 @@
         <v>33</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="P4" s="8" t="s">
         <v>22</v>
@@ -1069,37 +1069,37 @@
         <v>33</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="P5" s="8" t="s">
         <v>22</v>
